--- a/Wings.xlsx
+++ b/Wings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programació\Python\Wing-Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79A6856-3CB5-4916-9CFF-5F06BF6664EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC78A758-08FE-420E-BA5F-6C44E0901731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wings" sheetId="1" r:id="rId1"/>
@@ -84,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -255,21 +255,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,6 +284,1191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16578937007874017"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78465507436570425"/>
+          <c:h val="0.80368839311752693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wings!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price per wing ($/w)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Wings!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wings!$F$2:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.0000</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.1375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1346153846153846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1343749999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1352941176470588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1342105263157896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.134090909090909</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1347826086956523</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1134615384615385</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1148148148148149</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1155172413793104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1185714285714285</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1185714285714285</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1126666666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.11375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1161111111111111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1123333333333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0F4-456E-A782-EE7F23A6C53B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="300269231"/>
+        <c:axId val="315037311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="300269231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Wings (w)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47960301837270342"/>
+              <c:y val="0.92960629921259841"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315037311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="315037311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Price per wing ($/w)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.21098753280839899"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$$-409]#,##0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300269231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1222345D-C4A3-163B-C517-EEBFFA91F478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,7 +1737,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +1760,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -597,7 +1781,7 @@
         <f>A2</f>
         <v>4</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>B2</f>
         <v>4.55</v>
       </c>
@@ -606,7 +1790,7 @@
         <v>1.1375</v>
       </c>
       <c r="F2" s="2">
-        <f>B2/A2</f>
+        <f t="shared" ref="F2:F41" si="0">B2/A2</f>
         <v>1.1375</v>
       </c>
     </row>
@@ -621,16 +1805,16 @@
         <f>A3-A2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>B3-B2</f>
         <v>1.1500000000000004</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E41" si="0">D3/C3</f>
+        <f t="shared" ref="E3:E41" si="1">D3/C3</f>
         <v>1.1500000000000004</v>
       </c>
       <c r="F3" s="2">
-        <f>B3/A3</f>
+        <f t="shared" si="0"/>
         <v>1.1400000000000001</v>
       </c>
     </row>
@@ -642,19 +1826,19 @@
         <v>6.8</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C41" si="1">A4-A3</f>
+        <f t="shared" ref="C4:C41" si="2">A4-A3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="13">
-        <f t="shared" ref="D4:D41" si="2">B4-B3</f>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D41" si="3">B4-B3</f>
         <v>1.0999999999999996</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>B4/A4</f>
+        <f t="shared" si="0"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -666,19 +1850,19 @@
         <v>7.95</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" si="2"/>
+      <c r="D5" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="F5" s="2">
-        <f>B5/A5</f>
+        <f t="shared" si="0"/>
         <v>1.1357142857142857</v>
       </c>
     </row>
@@ -690,19 +1874,19 @@
         <v>9.1</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D6" s="13">
-        <f t="shared" si="2"/>
+      <c r="D6" s="12">
+        <f t="shared" si="3"/>
         <v>1.1499999999999995</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1499999999999995</v>
       </c>
       <c r="F6" s="2">
-        <f>B6/A6</f>
+        <f t="shared" si="0"/>
         <v>1.1375</v>
       </c>
     </row>
@@ -714,19 +1898,19 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D7" s="13">
-        <f t="shared" si="2"/>
+      <c r="D7" s="12">
+        <f t="shared" si="3"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="F7" s="2">
-        <f>B7/A7</f>
+        <f t="shared" si="0"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -738,19 +1922,19 @@
         <v>11.35</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D8" s="13">
-        <f t="shared" si="2"/>
+      <c r="D8" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="F8" s="2">
-        <f>B8/A8</f>
+        <f t="shared" si="0"/>
         <v>1.135</v>
       </c>
     </row>
@@ -762,19 +1946,19 @@
         <v>12.5</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D9" s="13">
-        <f t="shared" si="2"/>
+      <c r="D9" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="F9" s="2">
-        <f>B9/A9</f>
+        <f t="shared" si="0"/>
         <v>1.1363636363636365</v>
       </c>
     </row>
@@ -786,19 +1970,19 @@
         <v>13.6</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D10" s="13">
-        <f t="shared" si="2"/>
+      <c r="D10" s="12">
+        <f t="shared" si="3"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="F10" s="2">
-        <f>B10/A10</f>
+        <f t="shared" si="0"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -810,19 +1994,19 @@
         <v>14.75</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D11" s="13">
-        <f t="shared" si="2"/>
+      <c r="D11" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="F11" s="2">
-        <f>B11/A11</f>
+        <f t="shared" si="0"/>
         <v>1.1346153846153846</v>
       </c>
     </row>
@@ -834,19 +2018,19 @@
         <v>15.9</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D12" s="13">
-        <f t="shared" si="2"/>
+      <c r="D12" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="F12" s="2">
-        <f>B12/A12</f>
+        <f t="shared" si="0"/>
         <v>1.1357142857142857</v>
       </c>
     </row>
@@ -858,19 +2042,19 @@
         <v>17</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D13" s="13">
-        <f t="shared" si="2"/>
+      <c r="D13" s="12">
+        <f t="shared" si="3"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="F13" s="2">
-        <f>B13/A13</f>
+        <f t="shared" si="0"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -882,19 +2066,19 @@
         <v>18.149999999999999</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D14" s="13">
-        <f t="shared" si="2"/>
+      <c r="D14" s="12">
+        <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="F14" s="2">
-        <f>B14/A14</f>
+        <f t="shared" si="0"/>
         <v>1.1343749999999999</v>
       </c>
     </row>
@@ -906,19 +2090,19 @@
         <v>19.3</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D15" s="13">
-        <f t="shared" si="2"/>
+      <c r="D15" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="F15" s="2">
-        <f>B15/A15</f>
+        <f t="shared" si="0"/>
         <v>1.1352941176470588</v>
       </c>
     </row>
@@ -930,19 +2114,19 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D16" s="13">
-        <f t="shared" si="2"/>
+      <c r="D16" s="12">
+        <f t="shared" si="3"/>
         <v>1.0999999999999979</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0999999999999979</v>
       </c>
       <c r="F16" s="2">
-        <f>B16/A16</f>
+        <f t="shared" si="0"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -954,19 +2138,19 @@
         <v>21.55</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D17" s="13">
-        <f t="shared" si="2"/>
+      <c r="D17" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="F17" s="2">
-        <f>B17/A17</f>
+        <f t="shared" si="0"/>
         <v>1.1342105263157896</v>
       </c>
     </row>
@@ -978,19 +2162,19 @@
         <v>22.7</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D18" s="13">
-        <f t="shared" si="2"/>
+      <c r="D18" s="12">
+        <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="F18" s="2">
-        <f>B18/A18</f>
+        <f t="shared" si="0"/>
         <v>1.135</v>
       </c>
     </row>
@@ -1002,19 +2186,19 @@
         <v>23.8</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D19" s="13">
-        <f t="shared" si="2"/>
+      <c r="D19" s="12">
+        <f t="shared" si="3"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="F19" s="2">
-        <f>B19/A19</f>
+        <f t="shared" si="0"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -1026,19 +2210,19 @@
         <v>24.95</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D20" s="13">
-        <f t="shared" si="2"/>
+      <c r="D20" s="12">
+        <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="F20" s="2">
-        <f>B20/A20</f>
+        <f t="shared" si="0"/>
         <v>1.134090909090909</v>
       </c>
     </row>
@@ -1050,19 +2234,19 @@
         <v>26.1</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D21" s="13">
-        <f t="shared" si="2"/>
+      <c r="D21" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="F21" s="2">
-        <f>B21/A21</f>
+        <f t="shared" si="0"/>
         <v>1.1347826086956523</v>
       </c>
     </row>
@@ -1074,19 +2258,19 @@
         <v>27.25</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D22" s="13">
-        <f t="shared" si="2"/>
+      <c r="D22" s="12">
+        <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="F22" s="2">
-        <f>B22/A22</f>
+        <f t="shared" si="0"/>
         <v>1.1354166666666667</v>
       </c>
     </row>
@@ -1098,19 +2282,19 @@
         <v>27.8</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D23" s="13">
-        <f t="shared" si="2"/>
+      <c r="D23" s="12">
+        <f t="shared" si="3"/>
         <v>0.55000000000000071</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55000000000000071</v>
       </c>
       <c r="F23" s="2">
-        <f>B23/A23</f>
+        <f t="shared" si="0"/>
         <v>1.1120000000000001</v>
       </c>
     </row>
@@ -1122,19 +2306,19 @@
         <v>28.95</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D24" s="13">
-        <f t="shared" si="2"/>
+      <c r="D24" s="12">
+        <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="F24" s="2">
-        <f>B24/A24</f>
+        <f t="shared" si="0"/>
         <v>1.1134615384615385</v>
       </c>
     </row>
@@ -1146,19 +2330,19 @@
         <v>30.1</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D25" s="13">
-        <f t="shared" si="2"/>
+      <c r="D25" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="F25" s="2">
-        <f>B25/A25</f>
+        <f t="shared" si="0"/>
         <v>1.1148148148148149</v>
       </c>
     </row>
@@ -1170,19 +2354,19 @@
         <v>31.2</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D26" s="13">
-        <f t="shared" si="2"/>
+      <c r="D26" s="12">
+        <f t="shared" si="3"/>
         <v>1.0999999999999979</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0999999999999979</v>
       </c>
       <c r="F26" s="2">
-        <f>B26/A26</f>
+        <f t="shared" si="0"/>
         <v>1.1142857142857143</v>
       </c>
     </row>
@@ -1194,19 +2378,19 @@
         <v>32.35</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D27" s="13">
-        <f t="shared" si="2"/>
+      <c r="D27" s="12">
+        <f t="shared" si="3"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000021</v>
       </c>
       <c r="F27" s="2">
-        <f>B27/A27</f>
+        <f t="shared" si="0"/>
         <v>1.1155172413793104</v>
       </c>
     </row>
@@ -1218,19 +2402,19 @@
         <v>33.5</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D28" s="13">
-        <f t="shared" si="2"/>
+      <c r="D28" s="12">
+        <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="F28" s="2">
-        <f>B28/A28</f>
+        <f t="shared" si="0"/>
         <v>1.1166666666666667</v>
       </c>
     </row>
@@ -1242,19 +2426,19 @@
         <v>39.15</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D29" s="13">
-        <f t="shared" si="2"/>
+      <c r="D29" s="12">
+        <f t="shared" si="3"/>
         <v>5.6499999999999986</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1299999999999997</v>
       </c>
       <c r="F29" s="2">
-        <f>B29/A29</f>
+        <f t="shared" si="0"/>
         <v>1.1185714285714285</v>
       </c>
     </row>
@@ -1266,19 +2450,19 @@
         <v>44.8</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D30" s="13">
-        <f t="shared" si="2"/>
+      <c r="D30" s="12">
+        <f t="shared" si="3"/>
         <v>5.6499999999999986</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1299999999999997</v>
       </c>
       <c r="F30" s="2">
-        <f>B30/A30</f>
+        <f t="shared" si="0"/>
         <v>1.1199999999999999</v>
       </c>
     </row>
@@ -1290,19 +2474,19 @@
         <v>50.5</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D31" s="13">
-        <f t="shared" si="2"/>
+      <c r="D31" s="12">
+        <f t="shared" si="3"/>
         <v>5.7000000000000028</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1400000000000006</v>
       </c>
       <c r="F31" s="2">
-        <f>B31/A31</f>
+        <f t="shared" si="0"/>
         <v>1.1222222222222222</v>
       </c>
     </row>
@@ -1314,19 +2498,19 @@
         <v>55.6</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D32" s="13">
-        <f t="shared" si="2"/>
+      <c r="D32" s="12">
+        <f t="shared" si="3"/>
         <v>5.1000000000000014</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0200000000000002</v>
       </c>
       <c r="F32" s="2">
-        <f>B32/A32</f>
+        <f t="shared" si="0"/>
         <v>1.1120000000000001</v>
       </c>
     </row>
@@ -1338,19 +2522,19 @@
         <v>67</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D33" s="13">
-        <f t="shared" si="2"/>
+      <c r="D33" s="12">
+        <f t="shared" si="3"/>
         <v>11.399999999999999</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="F33" s="2">
-        <f>B33/A33</f>
+        <f t="shared" si="0"/>
         <v>1.1166666666666667</v>
       </c>
     </row>
@@ -1362,19 +2546,19 @@
         <v>78.3</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D34" s="13">
-        <f t="shared" si="2"/>
+      <c r="D34" s="12">
+        <f t="shared" si="3"/>
         <v>11.299999999999997</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1299999999999997</v>
       </c>
       <c r="F34" s="2">
-        <f>B34/A34</f>
+        <f t="shared" si="0"/>
         <v>1.1185714285714285</v>
       </c>
     </row>
@@ -1386,19 +2570,19 @@
         <v>83.45</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D35" s="13">
-        <f t="shared" si="2"/>
+      <c r="D35" s="12">
+        <f t="shared" si="3"/>
         <v>5.1500000000000057</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0300000000000011</v>
       </c>
       <c r="F35" s="2">
-        <f>B35/A35</f>
+        <f t="shared" si="0"/>
         <v>1.1126666666666667</v>
       </c>
     </row>
@@ -1410,19 +2594,19 @@
         <v>89.1</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D36" s="13">
-        <f t="shared" si="2"/>
+      <c r="D36" s="12">
+        <f t="shared" si="3"/>
         <v>5.6499999999999915</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1299999999999983</v>
       </c>
       <c r="F36" s="2">
-        <f>B36/A36</f>
+        <f t="shared" si="0"/>
         <v>1.11375</v>
       </c>
     </row>
@@ -1434,19 +2618,19 @@
         <v>100.45</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D37" s="13">
-        <f t="shared" si="2"/>
+      <c r="D37" s="12">
+        <f t="shared" si="3"/>
         <v>11.350000000000009</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1350000000000009</v>
       </c>
       <c r="F37" s="2">
-        <f>B37/A37</f>
+        <f t="shared" si="0"/>
         <v>1.1161111111111111</v>
       </c>
     </row>
@@ -1458,19 +2642,19 @@
         <v>111.25</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D38" s="13">
-        <f t="shared" si="2"/>
+      <c r="D38" s="12">
+        <f t="shared" si="3"/>
         <v>10.799999999999997</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0799999999999996</v>
       </c>
       <c r="F38" s="2">
-        <f>B38/A38</f>
+        <f t="shared" si="0"/>
         <v>1.1125</v>
       </c>
     </row>
@@ -1482,19 +2666,19 @@
         <v>139</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D39" s="13">
-        <f t="shared" si="2"/>
+      <c r="D39" s="12">
+        <f t="shared" si="3"/>
         <v>27.75</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="F39" s="2">
-        <f>B39/A39</f>
+        <f t="shared" si="0"/>
         <v>1.1120000000000001</v>
       </c>
     </row>
@@ -1506,19 +2690,19 @@
         <v>166.85</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D40" s="13">
-        <f t="shared" si="2"/>
+      <c r="D40" s="12">
+        <f t="shared" si="3"/>
         <v>27.849999999999994</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1139999999999999</v>
       </c>
       <c r="F40" s="2">
-        <f>B40/A40</f>
+        <f t="shared" si="0"/>
         <v>1.1123333333333334</v>
       </c>
     </row>
@@ -1530,19 +2714,19 @@
         <v>222.5</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="D41" s="13">
-        <f t="shared" si="2"/>
+      <c r="D41" s="12">
+        <f t="shared" si="3"/>
         <v>55.650000000000006</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1130000000000002</v>
       </c>
       <c r="F41" s="2">
-        <f>B41/A41</f>
+        <f t="shared" si="0"/>
         <v>1.1125</v>
       </c>
     </row>
@@ -1572,5 +2756,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Wings.xlsx
+++ b/Wings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programació\Python\Wing-Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC78A758-08FE-420E-BA5F-6C44E0901731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F70764-577E-45DE-9709-9CEBE2FCEB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2595" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wings" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -269,6 +269,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,9 +1750,10 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>4</v>
       </c>
@@ -1793,8 +1796,11 @@
         <f t="shared" ref="F2:F41" si="0">B2/A2</f>
         <v>1.1375</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>5</v>
       </c>
@@ -1817,8 +1823,16 @@
         <f t="shared" si="0"/>
         <v>1.1400000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="14">
+        <f>A23+A7</f>
+        <v>34</v>
+      </c>
+      <c r="I3" s="13">
+        <f>B23+B7</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>6</v>
       </c>
@@ -1841,8 +1855,16 @@
         <f t="shared" si="0"/>
         <v>1.1333333333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>A28+A2</f>
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <f>B28+B2</f>
+        <v>38.049999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>7</v>
       </c>
@@ -1866,7 +1888,7 @@
         <v>1.1357142857142857</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>8</v>
       </c>
@@ -1890,7 +1912,7 @@
         <v>1.1375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>9</v>
       </c>
@@ -1914,7 +1936,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -1938,7 +1960,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>11</v>
       </c>
@@ -1962,7 +1984,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>12</v>
       </c>
@@ -1986,7 +2008,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -2010,7 +2032,7 @@
         <v>1.1346153846153846</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>14</v>
       </c>
@@ -2034,7 +2056,7 @@
         <v>1.1357142857142857</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>15</v>
       </c>
@@ -2058,7 +2080,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>16</v>
       </c>
@@ -2082,7 +2104,7 @@
         <v>1.1343749999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>17</v>
       </c>
@@ -2106,7 +2128,7 @@
         <v>1.1352941176470588</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>18</v>
       </c>
